--- a/result.xlsx
+++ b/result.xlsx
@@ -194,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
   <si>
     <t>totalGroup</t>
   </si>
@@ -292,15 +292,6 @@
     <t>Group Group 2</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>A003</t>
-  </si>
-  <si>
-    <t>Nguyen Van A003</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -340,15 +331,6 @@
     <t>Nguyen Van A007</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>A008</t>
-  </si>
-  <si>
-    <t>Nguyen Van A008</t>
-  </si>
-  <si>
     <t>Parent Parent 3</t>
   </si>
   <si>
@@ -359,15 +341,6 @@
   </si>
   <si>
     <t>Nguyen Van A009</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>A010</t>
-  </si>
-  <si>
-    <t>Nguyen Van A010</t>
   </si>
 </sst>
 </file>
@@ -468,7 +441,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -526,51 +499,231 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -911,469 +1064,469 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="13"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="15"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="14"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="16" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="14"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="14"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="14"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="14"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="14"/>
     </row>
     <row r="6" ht="15.0" customHeight="true">
-      <c r="A6" t="s" s="5">
+      <c r="A6" t="s" s="20">
         <v>23</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" ht="15.0" customHeight="true">
-      <c r="A7" s="13"/>
-      <c r="B7" t="s" s="8">
+      <c r="A7" s="7"/>
+      <c r="B7" t="s" s="23">
         <v>24</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="15"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" ht="15.0" customHeight="true">
-      <c r="A8" s="14"/>
-      <c r="B8" s="7"/>
-      <c r="C8" t="s" s="16">
+      <c r="A8" s="9"/>
+      <c r="B8" s="4"/>
+      <c r="C8" t="s" s="6">
         <v>25</v>
       </c>
-      <c r="D8" t="s" s="10">
+      <c r="D8" t="s" s="5">
         <v>26</v>
       </c>
-      <c r="E8" t="s" s="11">
+      <c r="E8" t="s" s="26">
         <v>27</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="14"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" ht="15.0" customHeight="true">
-      <c r="A9" s="14"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" ht="15.0" customHeight="true">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="4"/>
+      <c r="C9" t="s" s="6">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s" s="5">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s" s="26">
+        <v>34</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="11" ht="15.0" customHeight="true">
-      <c r="A11" s="14"/>
-      <c r="B11" s="7"/>
-      <c r="C11" t="s" s="16">
+      <c r="A11" t="s" s="20">
+        <v>35</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" ht="15.0" customHeight="true">
+      <c r="A12" s="7"/>
+      <c r="B12" t="s" s="23">
+        <v>24</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" ht="15.0" customHeight="true">
+      <c r="A13" s="9"/>
+      <c r="B13" s="4"/>
+      <c r="C13" t="s" s="6">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s" s="5">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s" s="26">
+        <v>38</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" ht="15.0" customHeight="true">
+      <c r="A14" s="9"/>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s" s="6">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s" s="26">
+        <v>41</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" ht="15.0" customHeight="true">
+      <c r="A15" s="7"/>
+      <c r="B15" t="s" s="23">
+        <v>31</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" ht="15.0" customHeight="true">
+      <c r="A16" t="s" s="20">
+        <v>45</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" ht="15.0" customHeight="true">
+      <c r="A17" s="7"/>
+      <c r="B17" t="s" s="23">
+        <v>24</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" ht="15.0" customHeight="true">
+      <c r="A18" s="9"/>
+      <c r="B18" s="4"/>
+      <c r="C18" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s" s="5">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s" s="26">
+        <v>48</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" ht="15.0" customHeight="true">
+      <c r="A19" s="9"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" ht="15.0" customHeight="true">
+      <c r="A20" s="7"/>
+      <c r="B20" t="s" s="23">
+        <v>31</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" ht="15.0" customHeight="true">
+      <c r="A21" s="9"/>
+      <c r="B21" s="4"/>
+      <c r="C21" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s" s="26">
+        <v>10</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" ht="15.0" customHeight="true">
+      <c r="A22" s="9"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="true">
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" ht="15.0" customHeight="true">
+      <c r="A27" s="9"/>
+      <c r="B27" s="4"/>
+      <c r="C27" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s" s="26">
+        <v>10</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" ht="15.0" customHeight="true">
+      <c r="A28" s="9"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" ht="15.0" customHeight="true">
+      <c r="A29" s="9"/>
+      <c r="B29" s="4"/>
+      <c r="C29" t="s" s="6">
+        <v>42</v>
+      </c>
+      <c r="D29" t="s" s="5">
+        <v>43</v>
+      </c>
+      <c r="E29" t="s" s="26">
+        <v>44</v>
+      </c>
+      <c r="F29" s="27"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="32" ht="15.0" customHeight="true">
+      <c r="A32" s="9"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="true">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
+    </row>
+    <row r="37" ht="15.0" customHeight="true">
+      <c r="A37" s="9"/>
+      <c r="B37" s="4"/>
+      <c r="C37" t="s" s="6">
         <v>28</v>
       </c>
-      <c r="D11" t="s" s="10">
+      <c r="D37" t="s" s="5">
         <v>29</v>
       </c>
-      <c r="E11" t="s" s="11">
+      <c r="E37" t="s" s="26">
         <v>30</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" ht="15.0" customHeight="true">
-      <c r="A12" s="13"/>
-      <c r="B12" t="s" s="8">
+      <c r="F37" s="27"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" ht="15.0" customHeight="true">
+      <c r="A38" s="7"/>
+      <c r="B38" t="s" s="23">
         <v>31</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" ht="15.0" customHeight="true">
-      <c r="A13" s="14"/>
-      <c r="B13" s="7"/>
-      <c r="C13" t="s" s="16">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="E13" t="s" s="11">
-        <v>34</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" ht="15.0" customHeight="true">
-      <c r="A14" s="14"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="15" ht="15.0" customHeight="true">
-      <c r="A15" s="14"/>
-      <c r="B15" s="7"/>
-      <c r="C15" t="s" s="16">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="E15" t="s" s="11">
-        <v>37</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" ht="15.0" customHeight="true">
-      <c r="A16" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" ht="15.0" customHeight="true">
-      <c r="A17" s="13"/>
-      <c r="B17" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" ht="15.0" customHeight="true">
-      <c r="A18" s="14"/>
-      <c r="B18" s="7"/>
-      <c r="C18" t="s" s="16">
-        <v>39</v>
-      </c>
-      <c r="D18" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="E18" t="s" s="11">
-        <v>41</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" ht="15.0" customHeight="true">
-      <c r="A19" s="14"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="20" ht="15.0" customHeight="true">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-    </row>
-    <row r="21" ht="15.0" customHeight="true">
-      <c r="A21" s="14"/>
-      <c r="B21" s="7"/>
-      <c r="C21" t="s" s="16">
-        <v>42</v>
-      </c>
-      <c r="D21" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="E21" t="s" s="11">
-        <v>44</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" ht="15.0" customHeight="true">
-      <c r="A22" s="14"/>
-      <c r="B22" s="7"/>
-      <c r="C22" t="s" s="16">
-        <v>45</v>
-      </c>
-      <c r="D22" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="E22" t="s" s="11">
-        <v>47</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="14"/>
-    </row>
-    <row r="23" ht="15.0" customHeight="true">
-      <c r="A23" s="13"/>
-      <c r="B23" t="s" s="8">
-        <v>31</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" ht="15.0" customHeight="true">
-      <c r="A24" s="14"/>
-      <c r="B24" s="7"/>
-      <c r="C24" t="s" s="16">
-        <v>48</v>
-      </c>
-      <c r="D24" t="s" s="10">
-        <v>49</v>
-      </c>
-      <c r="E24" t="s" s="11">
-        <v>50</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="14"/>
-    </row>
-    <row r="25" ht="15.0" customHeight="true">
-      <c r="A25" s="14"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="14"/>
-    </row>
-    <row r="26" ht="15.0" customHeight="true">
-      <c r="A26" t="s" s="5">
-        <v>51</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" ht="15.0" customHeight="true">
-      <c r="A27" s="13"/>
-      <c r="B27" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="15"/>
-    </row>
-    <row r="28" ht="15.0" customHeight="true">
-      <c r="A28" s="14"/>
-      <c r="B28" s="7"/>
-      <c r="C28" t="s" s="16">
-        <v>52</v>
-      </c>
-      <c r="D28" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="E28" t="s" s="11">
-        <v>54</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="14"/>
-    </row>
-    <row r="29" ht="15.0" customHeight="true">
-      <c r="A29" s="14"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="14"/>
-    </row>
-    <row r="30" ht="15.0" customHeight="true">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-    </row>
-    <row r="31" ht="15.0" customHeight="true">
-      <c r="A31" s="13"/>
-      <c r="B31" t="s" s="8">
-        <v>31</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="15"/>
-    </row>
-    <row r="32" ht="15.0" customHeight="true">
-      <c r="A32" s="14"/>
-      <c r="B32" s="7"/>
-      <c r="C32" t="s" s="16">
-        <v>55</v>
-      </c>
-      <c r="D32" t="s" s="10">
-        <v>56</v>
-      </c>
-      <c r="E32" t="s" s="11">
-        <v>57</v>
-      </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="14"/>
-    </row>
-    <row r="33" ht="15.0" customHeight="true">
-      <c r="A33" s="14"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="14"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.75">
-      <c r="A35" s="3" t="s">
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" ht="15.0" customHeight="true">
+      <c r="A39" s="9"/>
+      <c r="B39" s="4"/>
+      <c r="C39" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s" s="26">
+        <v>10</v>
+      </c>
+      <c r="F39" s="27"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" ht="15.0" customHeight="true">
+      <c r="A40" s="9"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="42" ht="15.0" customHeight="true">
+      <c r="A42" s="9"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="true">
+      <c r="A46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="14"/>
+    </row>
+    <row r="76" spans="1:8" ht="15.75">
+      <c r="A76" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="80">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A35:H35"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A11:H11"/>
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B15:G15"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A76:H76"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B20:G20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -1403,7 +1556,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
@@ -1411,7 +1564,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="1">
@@ -1419,7 +1572,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1">
@@ -1427,18 +1580,18 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1452,7 +1605,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1466,7 +1619,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">

--- a/result.xlsx
+++ b/result.xlsx
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
-    <sheet name="config" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,161 +39,12 @@
   <authors>
     <author>AdonisGM</author>
   </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>AdonisGM:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Tổng số bảng lồng nhau</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>AdonisGM:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-0: Report không chưa thông tin chung
-1: Report có chứa thông tin chung</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>AdonisGM:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-0: Không có merge cell trong report
-1: Có merge cell trong report</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>AdonisGM:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Toạ độ bắt đầu của bảng</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>AdonisGM:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Toạ độ kết thúc của bảng</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>AdonisGM:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Các cột thông tin của bảng,
-Nếu là bảng cuối cùng không điền tên cột vì sẽ lấy all
-Nếu có nhiều cột thì ngăn cách bằng dấu ",". VD: "ABC,EDO"</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
+  <commentList/>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="26">
   <si>
     <t>totalGroup</t>
   </si>
@@ -256,97 +106,22 @@
     <t>A6</t>
   </si>
   <si>
-    <t>C7</t>
-  </si>
-  <si>
     <t>A7</t>
   </si>
   <si>
-    <t>C8</t>
-  </si>
-  <si>
     <t>End Group &lt;#NAME_GROUP&gt;</t>
   </si>
   <si>
     <t>End General: &lt;#GENERAL_NAME_REPORT&gt;</t>
   </si>
   <si>
-    <t>Group Group 1</t>
-  </si>
-  <si>
-    <t>A001</t>
-  </si>
-  <si>
-    <t>Nguyen Van A001</t>
-  </si>
-  <si>
-    <t>A002</t>
-  </si>
-  <si>
-    <t>Nguyen Van A002</t>
-  </si>
-  <si>
-    <t>A005</t>
-  </si>
-  <si>
-    <t>Nguyen Van A005</t>
-  </si>
-  <si>
-    <t>A006</t>
-  </si>
-  <si>
-    <t>Nguyen Van A006</t>
-  </si>
-  <si>
-    <t>A007</t>
-  </si>
-  <si>
-    <t>Nguyen Van A007</t>
-  </si>
-  <si>
-    <t>A009</t>
-  </si>
-  <si>
-    <t>Nguyen Van A009</t>
-  </si>
-  <si>
-    <t>End Group Group 1</t>
-  </si>
-  <si>
-    <t>Group Group 2</t>
-  </si>
-  <si>
-    <t>A003</t>
-  </si>
-  <si>
-    <t>Nguyen Van A003</t>
-  </si>
-  <si>
-    <t>A004</t>
-  </si>
-  <si>
-    <t>Nguyen Van A004</t>
-  </si>
-  <si>
-    <t>A008</t>
-  </si>
-  <si>
-    <t>Nguyen Van A008</t>
-  </si>
-  <si>
-    <t>A010</t>
-  </si>
-  <si>
-    <t>Nguyen Van A010</t>
-  </si>
-  <si>
-    <t>End Group Group 2</t>
-  </si>
-  <si>
-    <t>General: Generate Template - Name report</t>
-  </si>
-  <si>
-    <t>End General: Generate Template - Name report</t>
+    <t>Merge Cell</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D7</t>
   </si>
 </sst>
 </file>
@@ -354,7 +129,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -413,6 +188,13 @@
       <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -499,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -521,6 +303,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -879,286 +664,231 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="21.109375"/>
-    <col min="2" max="2" customWidth="true" style="8" width="14.44140625"/>
-    <col min="3" max="3" customWidth="true" width="25.44140625"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75">
-      <c r="A3" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" ht="15.0" customHeight="true">
-      <c r="A6" t="s" s="11">
-        <v>25</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-    </row>
-    <row r="7" ht="15.0" customHeight="true">
-      <c r="A7" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="B7" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s" s="6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" ht="15.0" customHeight="true">
-      <c r="A8" t="n" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="B8" t="s" s="10">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s" s="6">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" ht="15.0" customHeight="true">
-      <c r="A9" t="n" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B9" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s" s="6">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" ht="15.0" customHeight="true">
-      <c r="A10" t="n" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="B10" t="s" s="10">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s" s="6">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" ht="15.0" customHeight="true">
-      <c r="A11" t="n" s="5">
-        <v>7.0</v>
-      </c>
-      <c r="B11" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s" s="6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" ht="15.0" customHeight="true">
-      <c r="A12" t="n" s="5">
-        <v>9.0</v>
-      </c>
-      <c r="B12" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s" s="6">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" ht="15.0" customHeight="true">
-      <c r="A13" t="s" s="14">
-        <v>38</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-    </row>
-    <row r="14" ht="15.0" customHeight="true">
-      <c r="A14" t="s" s="11">
-        <v>39</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-    </row>
-    <row r="15" ht="15.0" customHeight="true">
-      <c r="A15" t="n" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="B15" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="C15" t="s" s="6">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" ht="15.0" customHeight="true">
-      <c r="A16" t="n" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="B16" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s" s="6">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" ht="15.0" customHeight="true">
-      <c r="A17" t="n" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="B17" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="C17" t="s" s="6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" ht="15.0" customHeight="true">
-      <c r="A18" t="n" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="B18" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s" s="6">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" ht="15.0" customHeight="true">
-      <c r="A19" t="s" s="14">
-        <v>48</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s" s="0">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s" s="0">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A19:C19"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="17.21875"/>
-    <col min="2" max="3" style="2" width="11.5546875"/>
-    <col min="4" max="4" customWidth="true" style="2" width="16.21875"/>
-    <col min="5" max="5" style="2" width="11.5546875"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="10.109375"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="6.109375"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="14.109375"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="12.77734375"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="12.44140625"/>
-    <col min="11" max="16384" style="2" width="11.5546875"/>
+    <col min="2" max="3" customWidth="true" style="8" width="14.44140625"/>
+    <col min="4" max="4" customWidth="true" width="18.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
+      <c r="A1" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75">
+      <c r="A3" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" ht="15.0" customHeight="true">
+      <c r="A6" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" ht="15.0" customHeight="true">
+      <c r="A7" t="s" s="11">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" ht="15.0" customHeight="true">
+      <c r="A8" t="s" s="11">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" ht="15.0" customHeight="true">
+      <c r="A9" t="s" s="11">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" ht="15.0" customHeight="true">
+      <c r="A10" t="s" s="11">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" ht="15.0" customHeight="true">
+      <c r="A11" t="s" s="11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" ht="15.0" customHeight="true">
+      <c r="A12" t="s" s="11">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" ht="15.0" customHeight="true">
+      <c r="A13" t="s" s="15">
+        <v>21</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" ht="15.0" customHeight="true">
+      <c r="A14" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" ht="15.0" customHeight="true">
+      <c r="A15" t="s" s="11">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" ht="15.0" customHeight="true">
+      <c r="A16" t="s" s="11">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" ht="15.0" customHeight="true">
+      <c r="A17" t="s" s="11">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" ht="15.0" customHeight="true">
+      <c r="A18" t="s" s="11">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" ht="15.0" customHeight="true">
+      <c r="A19" t="s" s="15">
+        <v>21</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s" s="0">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <mergeCells count="4">
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A19:D19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceBuild\poi-excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adonisgm/Documents/Learning/java/poiExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8586F33D-BEE3-7343-9938-DA54A58E3F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="1800" windowWidth="28035" windowHeight="17445"/>
+    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -19,32 +20,36 @@
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>AdonisGM</author>
+    <author>Nguyễn Mạnh Tùng</author>
   </authors>
-  <commentList/>
+  <commentList>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{869A9AAF-F2B1-9E44-9B7F-8D505C22AC6E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>merge_id:&lt;#merge.NAME_GROUP&gt;</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
   <si>
     <t>totalGroup</t>
   </si>
@@ -64,18 +69,6 @@
     <t>NAME_GROUP</t>
   </si>
   <si>
-    <t>&lt;#NAME&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#ROW_NUM&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#CODE&gt;</t>
-  </si>
-  <si>
-    <t>Group &lt;#NAME_GROUP&gt;</t>
-  </si>
-  <si>
     <t>isMergeCell</t>
   </si>
   <si>
@@ -109,9 +102,6 @@
     <t>A7</t>
   </si>
   <si>
-    <t>End Group &lt;#NAME_GROUP&gt;</t>
-  </si>
-  <si>
     <t>End General: &lt;#GENERAL_NAME_REPORT&gt;</t>
   </si>
   <si>
@@ -122,14 +112,101 @@
   </si>
   <si>
     <t>D7</t>
+  </si>
+  <si>
+    <t>&lt;#table.ROW_NUM&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#table.CODE&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#table.NAME&gt;</t>
+  </si>
+  <si>
+    <t>Group &lt;#table.NAME_GROUP&gt;</t>
+  </si>
+  <si>
+    <t>End Group &lt;#table.NAME_GROUP&gt;</t>
+  </si>
+  <si>
+    <t>Group Group 1</t>
+  </si>
+  <si>
+    <t>A001</t>
+  </si>
+  <si>
+    <t>Nguyen Van A001</t>
+  </si>
+  <si>
+    <t>A002</t>
+  </si>
+  <si>
+    <t>Nguyen Van A002</t>
+  </si>
+  <si>
+    <t>A005</t>
+  </si>
+  <si>
+    <t>Nguyen Van A005</t>
+  </si>
+  <si>
+    <t>A006</t>
+  </si>
+  <si>
+    <t>Nguyen Van A006</t>
+  </si>
+  <si>
+    <t>A007</t>
+  </si>
+  <si>
+    <t>Nguyen Van A007</t>
+  </si>
+  <si>
+    <t>A009</t>
+  </si>
+  <si>
+    <t>Nguyen Van A009</t>
+  </si>
+  <si>
+    <t>End Group Group 1</t>
+  </si>
+  <si>
+    <t>Group Group 2</t>
+  </si>
+  <si>
+    <t>A003</t>
+  </si>
+  <si>
+    <t>Nguyen Van A003</t>
+  </si>
+  <si>
+    <t>A004</t>
+  </si>
+  <si>
+    <t>Nguyen Van A004</t>
+  </si>
+  <si>
+    <t>A008</t>
+  </si>
+  <si>
+    <t>Nguyen Van A008</t>
+  </si>
+  <si>
+    <t>A010</t>
+  </si>
+  <si>
+    <t>Nguyen Van A010</t>
+  </si>
+  <si>
+    <t>End Group Group 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -191,10 +268,10 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -289,10 +366,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -302,28 +379,28 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -346,6 +423,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -664,222 +745,222 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.109375"/>
-    <col min="2" max="3" customWidth="true" style="8" width="14.44140625"/>
-    <col min="4" max="4" customWidth="true" width="18.5546875"/>
+    <col min="1" max="1" customWidth="true" width="21.1640625"/>
+    <col min="2" max="3" customWidth="true" style="8" width="14.5"/>
+    <col min="4" max="4" customWidth="true" width="18.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75">
-      <c r="A3" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" ht="15.0" customHeight="true">
+    <row r="6" ht="16.0" customHeight="true">
       <c r="A6" t="s" s="12">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
     </row>
-    <row r="7" ht="15.0" customHeight="true">
+    <row r="7" ht="16.0" customHeight="true">
       <c r="A7" t="s" s="11">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s" s="5">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="B7" t="n" s="5">
+        <v>1.0</v>
       </c>
       <c r="C7" t="s" s="10">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" ht="15.0" customHeight="true">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" ht="16.0" customHeight="true">
       <c r="A8" t="s" s="11">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s" s="5">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="B8" t="n" s="5">
+        <v>2.0</v>
       </c>
       <c r="C8" t="s" s="10">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" ht="15.0" customHeight="true">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" ht="16.0" customHeight="true">
       <c r="A9" t="s" s="11">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s" s="5">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="B9" t="n" s="5">
+        <v>5.0</v>
       </c>
       <c r="C9" t="s" s="10">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" ht="15.0" customHeight="true">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" ht="16.0" customHeight="true">
       <c r="A10" t="s" s="11">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s" s="5">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="B10" t="n" s="5">
+        <v>6.0</v>
       </c>
       <c r="C10" t="s" s="10">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" ht="15.0" customHeight="true">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" ht="16.0" customHeight="true">
       <c r="A11" t="s" s="11">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s" s="5">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="B11" t="n" s="5">
+        <v>7.0</v>
       </c>
       <c r="C11" t="s" s="10">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" ht="15.0" customHeight="true">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" ht="16.0" customHeight="true">
       <c r="A12" t="s" s="11">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s" s="5">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="B12" t="n" s="5">
+        <v>9.0</v>
       </c>
       <c r="C12" t="s" s="10">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" ht="15.0" customHeight="true">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" ht="16.0" customHeight="true">
       <c r="A13" t="s" s="15">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17"/>
     </row>
-    <row r="14" ht="15.0" customHeight="true">
+    <row r="14" ht="16.0" customHeight="true">
       <c r="A14" t="s" s="12">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
-    <row r="15" ht="15.0" customHeight="true">
+    <row r="15" ht="16.0" customHeight="true">
       <c r="A15" t="s" s="11">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s" s="5">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="B15" t="n" s="5">
+        <v>3.0</v>
       </c>
       <c r="C15" t="s" s="10">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" ht="15.0" customHeight="true">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" ht="16.0" customHeight="true">
       <c r="A16" t="s" s="11">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s" s="5">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="B16" t="n" s="5">
+        <v>4.0</v>
       </c>
       <c r="C16" t="s" s="10">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" ht="15.0" customHeight="true">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" ht="16.0" customHeight="true">
       <c r="A17" t="s" s="11">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s" s="5">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="B17" t="n" s="5">
+        <v>8.0</v>
       </c>
       <c r="C17" t="s" s="10">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" ht="15.0" customHeight="true">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" ht="16.0" customHeight="true">
       <c r="A18" t="s" s="11">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s" s="5">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="B18" t="n" s="5">
+        <v>10.0</v>
       </c>
       <c r="C18" t="s" s="10">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" ht="15.0" customHeight="true">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" ht="16.0" customHeight="true">
       <c r="A19" t="s" s="15">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s" s="0">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s" s="0">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adonisgm/Documents/Learning/java/poiExcel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceBuild\poi-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8586F33D-BEE3-7343-9938-DA54A58E3F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5175" yWindow="1800" windowWidth="28035" windowHeight="17445"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -25,31 +24,16 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Nguyễn Mạnh Tùng</author>
   </authors>
-  <commentList>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{869A9AAF-F2B1-9E44-9B7F-8D505C22AC6E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>merge_id:&lt;#merge.NAME_GROUP&gt;</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
+  <commentList/>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="54">
   <si>
     <t>totalGroup</t>
   </si>
@@ -93,21 +77,12 @@
     <t>Name</t>
   </si>
   <si>
-    <t>General: &lt;#GENERAL_NAME_REPORT&gt;</t>
-  </si>
-  <si>
     <t>A6</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>End General: &lt;#GENERAL_NAME_REPORT&gt;</t>
-  </si>
-  <si>
-    <t>Merge Cell</t>
-  </si>
-  <si>
     <t>D8</t>
   </si>
   <si>
@@ -129,9 +104,21 @@
     <t>End Group &lt;#table.NAME_GROUP&gt;</t>
   </si>
   <si>
+    <t>General: &lt;#general.GENERAL_NAME_REPORT&gt;</t>
+  </si>
+  <si>
+    <t>End General: &lt;#general.GENERAL_NAME_REPORT&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#table.NAME_GROUP&gt;</t>
+  </si>
+  <si>
     <t>Group Group 1</t>
   </si>
   <si>
+    <t>Group 1</t>
+  </si>
+  <si>
     <t>A001</t>
   </si>
   <si>
@@ -174,6 +161,9 @@
     <t>Group Group 2</t>
   </si>
   <si>
+    <t>Group 2</t>
+  </si>
+  <si>
     <t>A003</t>
   </si>
   <si>
@@ -199,14 +189,20 @@
   </si>
   <si>
     <t>End Group Group 2</t>
+  </si>
+  <si>
+    <t>General: Generate Template - Name report</t>
+  </si>
+  <si>
+    <t>End General: Generate Template - Name report</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -423,6 +419,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -745,31 +745,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.1640625"/>
-    <col min="2" max="3" customWidth="true" style="8" width="14.5"/>
-    <col min="4" max="4" customWidth="true" width="18.5"/>
+    <col min="1" max="1" customWidth="true" width="21.109375"/>
+    <col min="2" max="3" customWidth="true" style="8" width="14.44140625"/>
+    <col min="4" max="4" customWidth="true" width="18.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.95">
       <c r="A1" t="s" s="0">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.75">
       <c r="A3" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.95">
       <c r="A5" s="4"/>
       <c r="B5" s="9" t="s">
         <v>11</v>
@@ -781,7 +781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="16.0" customHeight="true">
+    <row r="6" ht="15.95" customHeight="true">
       <c r="A6" t="s" s="12">
         <v>26</v>
       </c>
@@ -789,189 +789,192 @@
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
     </row>
-    <row r="7" ht="16.0" customHeight="true">
+    <row r="7" ht="15.95" customHeight="true">
       <c r="A7" t="s" s="11">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B7" t="n" s="5">
         <v>1.0</v>
       </c>
       <c r="C7" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" ht="15.95" customHeight="true">
+      <c r="A8" t="s" s="11">
         <v>27</v>
-      </c>
-      <c r="D7" t="s" s="6">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" ht="16.0" customHeight="true">
-      <c r="A8" t="s" s="11">
-        <v>18</v>
       </c>
       <c r="B8" t="n" s="5">
         <v>2.0</v>
       </c>
       <c r="C8" t="s" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" ht="16.0" customHeight="true">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" ht="15.95" customHeight="true">
       <c r="A9" t="s" s="11">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B9" t="n" s="5">
         <v>5.0</v>
       </c>
       <c r="C9" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s" s="6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" ht="16.0" customHeight="true">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" ht="15.95" customHeight="true">
       <c r="A10" t="s" s="11">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B10" t="n" s="5">
         <v>6.0</v>
       </c>
       <c r="C10" t="s" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s" s="6">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" ht="16.0" customHeight="true">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" ht="15.95" customHeight="true">
       <c r="A11" t="s" s="11">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B11" t="n" s="5">
         <v>7.0</v>
       </c>
       <c r="C11" t="s" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s" s="6">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" ht="16.0" customHeight="true">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" ht="15.95" customHeight="true">
       <c r="A12" t="s" s="11">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B12" t="n" s="5">
         <v>9.0</v>
       </c>
       <c r="C12" t="s" s="10">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s" s="6">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" ht="16.0" customHeight="true">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" ht="15.95" customHeight="true">
       <c r="A13" t="s" s="15">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17"/>
     </row>
-    <row r="14" ht="16.0" customHeight="true">
+    <row r="14" ht="15.95" customHeight="true">
       <c r="A14" t="s" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
-    <row r="15" ht="16.0" customHeight="true">
+    <row r="15" ht="15.95" customHeight="true">
       <c r="A15" t="s" s="11">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B15" t="n" s="5">
         <v>3.0</v>
       </c>
       <c r="C15" t="s" s="10">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" ht="15.95" customHeight="true">
+      <c r="A16" t="s" s="11">
         <v>42</v>
-      </c>
-    </row>
-    <row r="16" ht="16.0" customHeight="true">
-      <c r="A16" t="s" s="11">
-        <v>18</v>
       </c>
       <c r="B16" t="n" s="5">
         <v>4.0</v>
       </c>
       <c r="C16" t="s" s="10">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s" s="6">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" ht="16.0" customHeight="true">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" ht="15.95" customHeight="true">
       <c r="A17" t="s" s="11">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B17" t="n" s="5">
         <v>8.0</v>
       </c>
       <c r="C17" t="s" s="10">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s" s="6">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" ht="16.0" customHeight="true">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" ht="15.95" customHeight="true">
       <c r="A18" t="s" s="11">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B18" t="n" s="5">
         <v>10.0</v>
       </c>
       <c r="C18" t="s" s="10">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s" s="6">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" ht="16.0" customHeight="true">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" ht="15.95" customHeight="true">
       <c r="A19" t="s" s="15">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15.95">
       <c r="A21" t="s" s="0">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.95">
       <c r="A23" t="s" s="0">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A7:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId4"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>